--- a/scrapers/TA/scrapes/1. Run/Excel_per_Region/Region_Paris_Prices_appended.xlsx
+++ b/scrapers/TA/scrapes/1. Run/Excel_per_Region/Region_Paris_Prices_appended.xlsx
@@ -830,2106 +830,1659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>196.3225806451613</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>275.1612903225807</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>198.0322580645161</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>253.8064516129032</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>273.8709677419355</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>249.5483870967742</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>146.5483870967742</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>250.6774193548387</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>196.6774193548387</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>275.3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>269.6451612903226</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>165.8709677419355</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>273.0322580645162</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>248.3225806451613</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
         <v>250.2903225806452</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>274.2258064516129</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
         <v>253.1612903225806</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
         <v>257.7741935483871</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
         <v>155.2903225806452</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>257.0967741935484</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>188.7741935483871</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>233.4193548387097</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>194.0645161290323</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>145.2903225806452</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>198.8333333333333</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
         <v>147.1290322580645</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>165.9677419354839</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>201.0322580645161</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>160.6774193548387</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
         <v>265.5806451612903</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
         <v>292.1612903225807</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
         <v>199.4838709677419</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
         <v>200.0322580645161</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
         <v>201</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
         <v>145.8064516129032</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
         <v>161.8387096774194</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
         <v>257.4666666666666</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
         <v>222.3870967741935</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
         <v>194.8064516129032</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
         <v>194.6774193548387</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
         <v>271.741935483871</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
         <v>302.3548387096774</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
         <v>276.7096774193548</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
         <v>86.35483870967742</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
         <v>270.5806451612903</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
         <v>203.4333333333333</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48">
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
         <v>221.0322580645161</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
         <v>262.1290322580645</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50">
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
         <v>202.258064516129</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
         <v>276.483870967742</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
         <v>161.7096774193548</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
         <v>194.1612903225806</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
         <v>249.8387096774194</v>
       </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
         <v>259.3548387096774</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
         <v>216.3225806451613</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
         <v>304.9677419354838</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
         <v>147.3548387096774</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59">
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
         <v>164.3870967741935</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
         <v>193.1290322580645</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
         <v>251.4838709677419</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62">
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
         <v>147.5806451612903</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
         <v>261.2258064516129</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
         <v>275.7096774193548</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
         <v>217.8387096774194</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
         <v>169.258064516129</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
         <v>167.1935483870968</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
         <v>264.516129032258</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
         <v>166.3548387096774</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
         <v>296.4516129032258</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
         <v>144.258064516129</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
         <v>164.9032258064516</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
         <v>207.5</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
         <v>271.4333333333333</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75">
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
         <v>255.0967741935484</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
         <v>247.4838709677419</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
         <v>253.4</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78">
         <v>237.7333333333333</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
         <v>250.3</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
         <v>163.3870967741935</v>
       </c>
-      <c r="D80" t="s">
+      <c r="C80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81">
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81">
         <v>199.5666666666667</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
         <v>260.8387096774193</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
         <v>245.1612903225806</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
         <v>254.7666666666667</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
         <v>164.9354838709677</v>
       </c>
-      <c r="D85" t="s">
+      <c r="C85" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
         <v>158.3870967741935</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
         <v>279.9677419354838</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88">
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
         <v>258</v>
       </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89">
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
         <v>252.2258064516129</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90">
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
         <v>256.6</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
         <v>258.2903225806452</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92">
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92">
         <v>160.8709677419355</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
         <v>158.0322580645161</v>
       </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94">
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94">
         <v>141.0322580645161</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95">
         <v>190.6774193548387</v>
       </c>
-      <c r="D95" t="s">
+      <c r="C95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96">
         <v>260.8387096774193</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
         <v>222.5806451612903</v>
       </c>
-      <c r="D97" t="s">
+      <c r="C97" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98">
         <v>198.4</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99">
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99">
         <v>164.8709677419355</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C99" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100">
         <v>270.483870967742</v>
       </c>
-      <c r="D100" t="s">
+      <c r="C100" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101">
         <v>204.8709677419355</v>
       </c>
-      <c r="D101" t="s">
+      <c r="C101" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102">
         <v>304.4516129032258</v>
       </c>
-      <c r="D102" t="s">
+      <c r="C102" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103">
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103">
         <v>192.4516129032258</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C103" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
         <v>256.5</v>
       </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105">
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105">
         <v>197.9032258064516</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C105" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106">
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106">
         <v>156.4838709677419</v>
       </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107">
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107">
         <v>182.3225806451613</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C107" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
         <v>203.5161290322581</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109">
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109">
         <v>193.9032258064516</v>
       </c>
-      <c r="D109" t="s">
+      <c r="C109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110">
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110">
         <v>230.8333333333333</v>
       </c>
-      <c r="D110" t="s">
+      <c r="C110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111">
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111">
         <v>160.0967741935484</v>
       </c>
-      <c r="D111" t="s">
+      <c r="C111" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112">
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112">
         <v>147.741935483871</v>
       </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113">
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113">
         <v>271.1935483870968</v>
       </c>
-      <c r="D113" t="s">
+      <c r="C113" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114">
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114">
         <v>240.2</v>
       </c>
-      <c r="D114" t="s">
+      <c r="C114" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115">
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
         <v>198.4193548387097</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116">
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116">
         <v>145.8064516129032</v>
       </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117">
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117">
         <v>240.0666666666667</v>
       </c>
-      <c r="D117" t="s">
+      <c r="C117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118">
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118">
         <v>196.3870967741935</v>
       </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119">
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119">
         <v>298.516129032258</v>
       </c>
-      <c r="D119" t="s">
+      <c r="C119" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120">
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120">
         <v>196.0967741935484</v>
       </c>
-      <c r="D120" t="s">
+      <c r="C120" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121">
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
         <v>295.9677419354838</v>
       </c>
-      <c r="D121" t="s">
+      <c r="C121" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122">
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122">
         <v>144.0322580645161</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C122" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123">
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123">
         <v>144.2258064516129</v>
       </c>
-      <c r="D123" t="s">
+      <c r="C123" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124">
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124">
         <v>193.6129032258065</v>
       </c>
-      <c r="D124" t="s">
+      <c r="C124" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125">
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125">
         <v>193.0645161290323</v>
       </c>
-      <c r="D125" t="s">
+      <c r="C125" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126">
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126">
         <v>268.3548387096774</v>
       </c>
-      <c r="D126" t="s">
+      <c r="C126" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127">
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127">
         <v>184.6774193548387</v>
       </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128">
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128">
         <v>144.0322580645161</v>
       </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129">
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129">
         <v>262.741935483871</v>
       </c>
-      <c r="D129" t="s">
+      <c r="C129" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130">
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130">
         <v>159.8709677419355</v>
       </c>
-      <c r="D130" t="s">
+      <c r="C130" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131">
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
         <v>242.8333333333333</v>
       </c>
-      <c r="D131" t="s">
+      <c r="C131" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132">
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132">
         <v>277.2258064516129</v>
       </c>
-      <c r="D132" t="s">
+      <c r="C132" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133">
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
         <v>156.7096774193548</v>
       </c>
-      <c r="D133" t="s">
+      <c r="C133" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134">
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134">
         <v>163.258064516129</v>
       </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135">
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135">
         <v>194.2258064516129</v>
       </c>
-      <c r="D135" t="s">
+      <c r="C135" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136">
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136">
         <v>201.5161290322581</v>
       </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137">
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137">
         <v>149.2258064516129</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138">
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138">
         <v>222.1</v>
       </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139">
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139">
         <v>164.7096774193548</v>
       </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140">
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140">
         <v>196.0967741935484</v>
       </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141">
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141">
         <v>214.3225806451613</v>
       </c>
-      <c r="D141" t="s">
+      <c r="C141" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142">
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142">
         <v>196.741935483871</v>
       </c>
-      <c r="D142" t="s">
+      <c r="C142" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143">
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143">
         <v>189.741935483871</v>
       </c>
-      <c r="D143" t="s">
+      <c r="C143" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144">
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144">
         <v>207.0645161290323</v>
       </c>
-      <c r="D144" t="s">
+      <c r="C144" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145">
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145">
         <v>164.2258064516129</v>
       </c>
-      <c r="D145" t="s">
+      <c r="C145" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146">
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146">
         <v>199.2903225806452</v>
       </c>
-      <c r="D146" t="s">
+      <c r="C146" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147">
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147">
         <v>194.3</v>
       </c>
-      <c r="D147" t="s">
+      <c r="C147" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148">
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148">
         <v>197.8709677419355</v>
       </c>
-      <c r="D148" t="s">
+      <c r="C148" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149">
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149">
         <v>197.6451612903226</v>
       </c>
-      <c r="D149" t="s">
+      <c r="C149" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150">
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150">
         <v>312.2258064516129</v>
       </c>
-      <c r="D150" t="s">
+      <c r="C150" t="s">
         <v>152</v>
       </c>
     </row>
